--- a/biology/Zoologie/Ero_canionis/Ero_canionis.xlsx
+++ b/biology/Zoologie/Ero_canionis/Ero_canionis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ero canionis est une espèce d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ero canionis est une espèce d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Utah, au Texas, en Indiana, en Ohio et au Wisconsin et au Canada en Colombie-Britannique, en Alberta, en Saskatchewan, au Manitoba, en Ontario, au Québec, en Nouveau-Brunswick, en Nouvelle-Écosse et à Terre-Neuve-et-Labrador[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Utah, au Texas, en Indiana, en Ohio et au Wisconsin et au Canada en Colombie-Britannique, en Alberta, en Saskatchewan, au Manitoba, en Ontario, au Québec, en Nouveau-Brunswick, en Nouvelle-Écosse et à Terre-Neuve-et-Labrador,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,2 à 2,5 mm et la femelle 3,0 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,2 à 2,5 mm et la femelle 3,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Chamberlin et Ivie en 1935.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin &amp; Ivie, 1935 : « Miscellaneous new American spiders. » Bulletin of the University of Utah, vol. 26, no 4, p. 1-79 (texte intégral).</t>
         </is>
